--- a/biology/Botanique/Campanula_barbata/Campanula_barbata.xlsx
+++ b/biology/Botanique/Campanula_barbata/Campanula_barbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula barbata
 La Campanule barbue (Campanula barbata) est une espèce de plantes à fleurs du genre Campanula et de la famille des Campanulaceae.
@@ -513,18 +525,124 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est une plante herbacée vivace en forme de clochette de 5-40 cm à rosette. Floraison : mai à août ; pollinisée par les insectes ou autogame.
-Identification rapide
-Toute la plante est velue
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace en forme de clochette de 5-40 cm à rosette. Floraison : mai à août ; pollinisée par les insectes ou autogame.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Campanula_barbata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanula_barbata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Identification rapide</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Toute la plante est velue
 Rosette de feuilles basales, la tige est pratiquement sans feuilles
 5 sépales intervertis par 5 appendices recourbés
-Corolle bleue en cloche à 5 lobes peu profonds, contenant 3 stigmates
-Confusion possible
-Il est possible de confondre la Campanule barbue et la Campanule carillon (Campanula medium). En effet, toutes deux sont couvertes de poils et ont 5 sépales intervertis par 5 appendices recourbés mais Campanula medium est moins trapue, elle a des feuilles caulinaires nombreuses et sa corolle contient 5 stigmates. Enfin, elle accepte un sol basique et préfère les stations chaudes alors que Campanula barbata est totalement acidiphile et montre une préférence pour la haute montagne.
-Identification poussée
-Plante couverte de poils raides
+Corolle bleue en cloche à 5 lobes peu profonds, contenant 3 stigmates</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Campanula_barbata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanula_barbata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusion possible</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible de confondre la Campanule barbue et la Campanule carillon (Campanula medium). En effet, toutes deux sont couvertes de poils et ont 5 sépales intervertis par 5 appendices recourbés mais Campanula medium est moins trapue, elle a des feuilles caulinaires nombreuses et sa corolle contient 5 stigmates. Enfin, elle accepte un sol basique et préfère les stations chaudes alors que Campanula barbata est totalement acidiphile et montre une préférence pour la haute montagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Campanula_barbata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanula_barbata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Identification poussée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plante couverte de poils raides
 Tige souterraine et racine principale épaisses, noirâtres
 Hampe florale très peu ramifiée, ronde et presque dépourvue de feuilles
 Feuilles réunies en rosette basale, présentant des poils rudes sur les 2 faces, de forme oblongue-lancéolée
